--- a/data/ROMP01.xlsx
+++ b/data/ROMP01.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://walbridge1-my.sharepoint.com/personal/jgrant_myupn_com/Documents/Documents/BusDuct Deliveries/App OSRs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{AA0A1F10-522D-4765-A4B8-4A2A8EEF437D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09D0A51E-5041-45BA-ABBC-E90E2AA6F3DE}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="8_{AA0A1F10-522D-4765-A4B8-4A2A8EEF437D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1448190-983E-41CC-9266-F54B2E7A9575}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3720" windowWidth="19185" windowHeight="10065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-285" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="orderStatusShippingReport" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">orderStatusShippingReport!$A$1:$F$113</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">orderStatusShippingReport!$A$1:$F$98</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="158">
   <si>
     <t>Shipped Qty</t>
   </si>
@@ -435,18 +436,6 @@
   </si>
   <si>
     <t>000820</t>
-  </si>
-  <si>
-    <t>*000620</t>
-  </si>
-  <si>
-    <t>11/'05/2025</t>
-  </si>
-  <si>
-    <t>10/30/2025</t>
-  </si>
-  <si>
-    <t>10/28/2025</t>
   </si>
   <si>
     <t>AVERITT EXPRESS, INC.</t>
@@ -597,7 +586,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -623,9 +612,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -647,6 +633,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -966,10 +956,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G127"/>
+  <dimension ref="A1:G112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A97" sqref="A97:XFD98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -985,19 +975,19 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>1</v>
@@ -1009,7 +999,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
@@ -1029,7 +1019,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
@@ -1049,7 +1039,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
@@ -1069,7 +1059,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>13</v>
@@ -1089,7 +1079,7 @@
         <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>16</v>
@@ -1109,7 +1099,7 @@
         <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>19</v>
@@ -1129,7 +1119,7 @@
         <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>21</v>
@@ -1149,7 +1139,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>23</v>
@@ -1169,7 +1159,7 @@
         <v>24</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>25</v>
@@ -1189,7 +1179,7 @@
         <v>26</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>27</v>
@@ -1209,7 +1199,7 @@
         <v>28</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>29</v>
@@ -1229,7 +1219,7 @@
         <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>31</v>
@@ -1249,7 +1239,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>3</v>
@@ -1269,7 +1259,7 @@
         <v>32</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>13</v>
@@ -1289,7 +1279,7 @@
         <v>33</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>34</v>
@@ -1309,7 +1299,7 @@
         <v>35</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>36</v>
@@ -1326,19 +1316,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D18" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E18" s="5">
-        <v>45933</v>
+        <v>45931</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>17</v>
@@ -1346,39 +1336,39 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D19" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E19" s="5">
-        <v>45933</v>
+        <v>45978</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>17</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D20" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E20" s="5">
-        <v>45933</v>
+        <v>45932</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>17</v>
@@ -1386,19 +1376,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D21" s="2">
         <v>1</v>
       </c>
       <c r="E21" s="5">
-        <v>45931</v>
+        <v>45935</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>17</v>
@@ -1406,39 +1396,39 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="D22" s="2">
         <v>1</v>
       </c>
       <c r="E22" s="5">
-        <v>45978</v>
+        <v>45932</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>137</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="D23" s="2">
         <v>1</v>
       </c>
       <c r="E23" s="5">
-        <v>45932</v>
+        <v>45933</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>17</v>
@@ -1446,19 +1436,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D24" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E24" s="5">
-        <v>45935</v>
+        <v>45916</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>17</v>
@@ -1466,19 +1456,19 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="D25" s="2">
         <v>1</v>
       </c>
       <c r="E25" s="5">
-        <v>45932</v>
+        <v>45930</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>17</v>
@@ -1486,159 +1476,159 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" s="2">
-        <v>1</v>
-      </c>
-      <c r="E26" s="5">
-        <v>45933</v>
+        <v>51</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D27" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E27" s="5">
-        <v>45916</v>
+        <v>45932</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="D28" s="2">
         <v>1</v>
       </c>
       <c r="E28" s="5">
-        <v>45930</v>
+        <v>45932</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>4</v>
+        <v>31</v>
+      </c>
+      <c r="D29" s="2">
+        <v>2</v>
+      </c>
+      <c r="E29" s="5">
+        <v>45930</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="D30" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E30" s="5">
-        <v>45932</v>
+        <v>45925</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" s="2">
-        <v>1</v>
-      </c>
-      <c r="E31" s="5">
-        <v>45932</v>
+        <v>3</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="D32" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E32" s="5">
-        <v>45930</v>
+        <v>45899</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D33" s="2">
         <v>1</v>
       </c>
       <c r="E33" s="5">
-        <v>45925</v>
+        <v>45967</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>17</v>
@@ -1646,39 +1636,39 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>4</v>
+        <v>62</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1</v>
+      </c>
+      <c r="E34" s="5">
+        <v>45945</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D35" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E35" s="5">
-        <v>45899</v>
+        <v>45944</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>17</v>
@@ -1686,19 +1676,19 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D36" s="2">
         <v>1</v>
       </c>
       <c r="E36" s="5">
-        <v>45967</v>
+        <v>45947</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>17</v>
@@ -1706,13 +1696,13 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D37" s="2">
         <v>1</v>
@@ -1726,19 +1716,19 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D38" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E38" s="5">
-        <v>45944</v>
+        <v>45974</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>17</v>
@@ -1746,19 +1736,19 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D39" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E39" s="5">
-        <v>45944</v>
+        <v>45942</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>17</v>
@@ -1766,19 +1756,19 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="D40" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E40" s="5">
-        <v>45947</v>
+        <v>45945</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>17</v>
@@ -1786,19 +1776,19 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D41" s="2">
         <v>1</v>
       </c>
       <c r="E41" s="5">
-        <v>45945</v>
+        <v>45943</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>17</v>
@@ -1806,19 +1796,19 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="D42" s="2">
         <v>1</v>
       </c>
       <c r="E42" s="5">
-        <v>45974</v>
+        <v>45944</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>17</v>
@@ -1826,19 +1816,19 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D43" s="2">
         <v>1</v>
       </c>
       <c r="E43" s="5">
-        <v>45942</v>
+        <v>45944</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>17</v>
@@ -1846,19 +1836,19 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="D44" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E44" s="5">
-        <v>45945</v>
+        <v>45944</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>17</v>
@@ -1866,19 +1856,19 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D45" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E45" s="5">
-        <v>45945</v>
+        <v>45944</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>17</v>
@@ -1886,19 +1876,19 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="D46" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E46" s="5">
-        <v>45946</v>
+        <v>45975</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>17</v>
@@ -1906,19 +1896,19 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="D47" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E47" s="5">
-        <v>45945</v>
+        <v>45966</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>17</v>
@@ -1926,19 +1916,19 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D48" s="2">
         <v>1</v>
       </c>
       <c r="E48" s="5">
-        <v>45943</v>
+        <v>45944</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>17</v>
@@ -1946,13 +1936,13 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="D49" s="2">
         <v>1</v>
@@ -1966,13 +1956,13 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="D50" s="2">
         <v>1</v>
@@ -1986,19 +1976,19 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="D51" s="2">
         <v>1</v>
       </c>
       <c r="E51" s="5">
-        <v>45944</v>
+        <v>45941</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>17</v>
@@ -2006,39 +1996,39 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D52" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E52" s="5">
-        <v>45944</v>
+        <v>45936</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="D53" s="2">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="E53" s="5">
-        <v>45975</v>
+        <v>45933</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>17</v>
@@ -2046,19 +2036,19 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="D54" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E54" s="5">
-        <v>45966</v>
+        <v>45942</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>17</v>
@@ -2066,16 +2056,16 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="D55" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E55" s="5">
         <v>45944</v>
@@ -2086,19 +2076,19 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D56" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E56" s="5">
-        <v>45944</v>
+        <v>45945</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>17</v>
@@ -2106,19 +2096,19 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="D57" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E57" s="5">
-        <v>45944</v>
+        <v>45942</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>17</v>
@@ -2126,19 +2116,19 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="D58" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E58" s="5">
-        <v>45941</v>
+        <v>45942</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>17</v>
@@ -2146,39 +2136,39 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>13</v>
+        <v>157</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="D59" s="2">
         <v>1</v>
       </c>
-      <c r="E59" s="5">
-        <v>45936</v>
+      <c r="E59" s="8">
+        <v>45971</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="D60" s="2">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="E60" s="5">
-        <v>45933</v>
+        <v>45944</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>17</v>
@@ -2186,19 +2176,19 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="D61" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E61" s="5">
-        <v>45942</v>
+        <v>45944</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>17</v>
@@ -2206,16 +2196,16 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="D62" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E62" s="5">
         <v>45944</v>
@@ -2226,99 +2216,99 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="D63" s="2">
         <v>2</v>
       </c>
       <c r="E63" s="5">
-        <v>45945</v>
+        <v>45943</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>98</v>
+        <v>7</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D64" s="2">
-        <v>2</v>
-      </c>
-      <c r="E64" s="5">
-        <v>45942</v>
+        <v>3</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D65" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E65" s="5">
-        <v>45942</v>
+        <v>45944</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>100</v>
+      <c r="A66" s="2">
+        <v>620</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>51</v>
+        <v>157</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="D66" s="2">
         <v>1</v>
       </c>
-      <c r="E66" s="8">
-        <v>45971</v>
+      <c r="E66" s="5">
+        <v>45960</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D67" s="7">
-        <v>1</v>
-      </c>
-      <c r="E67" s="8">
-        <v>45971</v>
+        <v>157</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D67" s="2">
+        <v>1</v>
+      </c>
+      <c r="E67" s="5">
+        <v>45939</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>17</v>
@@ -2326,19 +2316,19 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="D68" s="2">
-        <v>1</v>
-      </c>
-      <c r="E68" s="9" t="s">
-        <v>136</v>
+        <v>6</v>
+      </c>
+      <c r="E68" s="5">
+        <v>45944</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>17</v>
@@ -2346,19 +2336,19 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="D69" s="2">
         <v>1</v>
       </c>
-      <c r="E69" s="9" t="s">
-        <v>135</v>
+      <c r="E69" s="5">
+        <v>45944</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>17</v>
@@ -2366,19 +2356,19 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="D70" s="2">
-        <v>1</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>134</v>
+        <v>2</v>
+      </c>
+      <c r="E70" s="5">
+        <v>45965</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>17</v>
@@ -2386,16 +2376,16 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="D71" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E71" s="5">
         <v>45944</v>
@@ -2406,16 +2396,16 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="D72" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E72" s="5">
         <v>45944</v>
@@ -2426,13 +2416,13 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="D73" s="2">
         <v>1</v>
@@ -2446,79 +2436,79 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D74" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E74" s="5">
-        <v>45944</v>
+        <v>45943</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D75" s="2">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="E75" s="5">
-        <v>45943</v>
+        <v>45935</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>7</v>
+        <v>122</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>4</v>
+        <v>38</v>
+      </c>
+      <c r="D76" s="2">
+        <v>2</v>
+      </c>
+      <c r="E76" s="5">
+        <v>45941</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="D77" s="2">
         <v>1</v>
       </c>
       <c r="E77" s="5">
-        <v>45944</v>
+        <v>45964</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>17</v>
@@ -2526,19 +2516,19 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D78" s="2">
         <v>1</v>
       </c>
       <c r="E78" s="5">
-        <v>45960</v>
+        <v>45964</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>17</v>
@@ -2546,19 +2536,19 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="D79" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E79" s="5">
-        <v>45939</v>
+        <v>45944</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>17</v>
@@ -2566,39 +2556,39 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D80" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E80" s="5">
-        <v>45944</v>
+        <v>45943</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D81" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E81" s="5">
-        <v>45944</v>
+        <v>45978</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>17</v>
@@ -2606,19 +2596,19 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="D82" s="2">
         <v>1</v>
       </c>
       <c r="E82" s="5">
-        <v>45944</v>
+        <v>45979</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>17</v>
@@ -2626,19 +2616,19 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="D83" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E83" s="5">
-        <v>45965</v>
+        <v>45976</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>17</v>
@@ -2646,19 +2636,19 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="D84" s="2">
         <v>1</v>
       </c>
       <c r="E84" s="5">
-        <v>45944</v>
+        <v>45978</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>17</v>
@@ -2666,19 +2656,19 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="D85" s="2">
         <v>1</v>
       </c>
       <c r="E85" s="5">
-        <v>45944</v>
+        <v>45978</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>17</v>
@@ -2686,19 +2676,19 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>119</v>
+        <v>36</v>
       </c>
       <c r="D86" s="2">
         <v>1</v>
       </c>
       <c r="E86" s="5">
-        <v>45944</v>
+        <v>45979</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>17</v>
@@ -2706,59 +2696,59 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D87" s="2">
         <v>1</v>
       </c>
       <c r="E87" s="5">
-        <v>45943</v>
+        <v>45978</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D88" s="2">
-        <v>27</v>
-      </c>
-      <c r="E88" s="5">
-        <v>45935</v>
+        <v>2</v>
+      </c>
+      <c r="E88" s="6">
+        <v>46001</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D89" s="2">
-        <v>2</v>
-      </c>
-      <c r="E89" s="5">
-        <v>45941</v>
+        <v>6</v>
+      </c>
+      <c r="E89" s="6">
+        <v>46001</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>17</v>
@@ -2766,19 +2756,19 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="D90" s="2">
-        <v>1</v>
-      </c>
-      <c r="E90" s="5">
-        <v>45964</v>
+        <v>3</v>
+      </c>
+      <c r="E90" s="6">
+        <v>46000</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>17</v>
@@ -2786,39 +2776,30 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D91" s="2">
-        <v>1</v>
-      </c>
-      <c r="E91" s="5">
-        <v>45964</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>17</v>
+        <v>145</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>27</v>
+        <v>146</v>
       </c>
       <c r="D92" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E92" s="5">
-        <v>45944</v>
+        <v>46014</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>17</v>
@@ -2826,99 +2807,72 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D93" s="2">
-        <v>2</v>
-      </c>
-      <c r="E93" s="5">
-        <v>45943</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>14</v>
+        <v>147</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D94" s="2">
-        <v>1</v>
-      </c>
-      <c r="E94" s="5">
-        <v>45978</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>17</v>
+        <v>148</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D95" s="2">
-        <v>1</v>
-      </c>
-      <c r="E95" s="5">
-        <v>45979</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
-        <v>128</v>
+      <c r="A96" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D96" s="2">
         <v>1</v>
       </c>
       <c r="E96" s="5">
-        <v>45976</v>
-      </c>
-      <c r="F96" s="2" t="s">
+        <v>46028</v>
+      </c>
+      <c r="F96" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="D97" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E97" s="5">
-        <v>45978</v>
+        <v>46027</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>17</v>
@@ -2926,19 +2880,19 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="D98" s="2">
         <v>1</v>
       </c>
       <c r="E98" s="5">
-        <v>45978</v>
+        <v>46027</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>17</v>
@@ -2946,307 +2900,43 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D99" s="2">
-        <v>1</v>
-      </c>
-      <c r="E99" s="5">
-        <v>45979</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D100" s="2">
-        <v>1</v>
-      </c>
-      <c r="E100" s="5">
-        <v>45978</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D101" s="2">
-        <v>2</v>
-      </c>
-      <c r="E101" s="6">
-        <v>46001</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D102" s="2">
-        <v>6</v>
-      </c>
-      <c r="E102" s="6">
-        <v>46001</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D103" s="2">
-        <v>3</v>
-      </c>
-      <c r="E103" s="6">
-        <v>46000</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>149</v>
-      </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D105" s="2">
-        <v>1</v>
-      </c>
-      <c r="E105" s="5">
-        <v>46014</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="A105" s="3"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>152</v>
-      </c>
+      <c r="A106" s="10"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D109" s="2">
-        <v>1</v>
-      </c>
-      <c r="E109" s="5">
-        <v>46028</v>
-      </c>
-      <c r="F109" t="s">
-        <v>17</v>
-      </c>
+      <c r="A108" s="10"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D110" s="2">
-        <v>1</v>
-      </c>
-      <c r="E110" s="5">
-        <v>46027</v>
-      </c>
-      <c r="F110" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D111" s="2">
-        <v>1</v>
-      </c>
-      <c r="E111" s="5">
-        <v>46027</v>
-      </c>
-      <c r="F111" t="s">
-        <v>17</v>
-      </c>
+      <c r="A110" s="10"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D112" s="2">
-        <v>2</v>
-      </c>
-      <c r="E112" s="5">
-        <v>46027</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D113" s="2">
-        <v>1</v>
-      </c>
-      <c r="E113" s="5">
-        <v>46027</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="3"/>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="11"/>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="11"/>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="11"/>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="11"/>
+      <c r="A112" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F113" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:F98" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
